--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed2/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.16919999999999</v>
+        <v>16.1065</v>
       </c>
     </row>
     <row r="4">
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.69870000000001</v>
+        <v>16.65560000000001</v>
       </c>
     </row>
     <row r="22">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.21289999999998</v>
+        <v>16.19759999999998</v>
       </c>
     </row>
     <row r="24">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.17070000000001</v>
+        <v>17.18340000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.62370000000001</v>
+        <v>16.67090000000001</v>
       </c>
     </row>
     <row r="54">
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.74090000000001</v>
+        <v>16.72570000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1443,7 +1443,7 @@
         <v>-9.48</v>
       </c>
       <c r="E59" t="n">
-        <v>16.0532</v>
+        <v>16.0283</v>
       </c>
     </row>
     <row r="60">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.34990000000002</v>
+        <v>17.34950000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.36250000000003</v>
+        <v>18.47150000000003</v>
       </c>
     </row>
     <row r="80">
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.53459999999999</v>
+        <v>16.46639999999999</v>
       </c>
     </row>
     <row r="84">
@@ -2021,7 +2021,7 @@
         <v>-6.1</v>
       </c>
       <c r="E93" t="n">
-        <v>17.74050000000002</v>
+        <v>17.87230000000002</v>
       </c>
     </row>
     <row r="94">
